--- a/Files/HRMSEmployeesData.xlsx
+++ b/Files/HRMSEmployeesData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14175"/>
+    <workbookView windowWidth="25417" windowHeight="10935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>FirstName</t>
   </si>
@@ -55,6 +56,9 @@
     <t>Sarah</t>
   </si>
   <si>
+    <t>D.</t>
+  </si>
+  <si>
     <t>Williams</t>
   </si>
   <si>
@@ -65,6 +69,69 @@
   </si>
   <si>
     <t>Brown</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>OtherID</t>
+  </si>
+  <si>
+    <t>DriversLicenseNumber</t>
+  </si>
+  <si>
+    <t>LicenseExpiryDate</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>SINNumber</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Maritalstatus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>MilitaryService</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>91/5/2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -72,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,6 +150,91 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,136 +247,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +306,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,157 +438,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +504,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +539,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -468,15 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,8 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,173 +597,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,15 +1075,15 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14678899082569" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.4761904761905" customWidth="1"/>
-    <col min="3" max="3" width="11.8857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.4311926605505" customWidth="1"/>
+    <col min="2" max="2" width="14.4770642201835" customWidth="1"/>
+    <col min="3" max="3" width="11.8899082568807" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1064,19 +1134,152 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.99082568807339" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="11.4678899082569" customWidth="1"/>
+    <col min="2" max="2" width="15.3211009174312" customWidth="1"/>
+    <col min="3" max="3" width="15.3302752293578" customWidth="1"/>
+    <col min="4" max="4" width="16.5779816513761" customWidth="1"/>
+    <col min="5" max="5" width="13.7064220183486" customWidth="1"/>
+    <col min="6" max="6" width="20.0642201834862" customWidth="1"/>
+    <col min="7" max="7" width="16.8165137614679" customWidth="1"/>
+    <col min="8" max="8" width="11.2110091743119" customWidth="1"/>
+    <col min="9" max="9" width="9.4954128440367"/>
+    <col min="11" max="11" width="11.2018348623853" customWidth="1"/>
+    <col min="16" max="16" width="12.8348623853211" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>65031260</v>
+      </c>
+      <c r="E2">
+        <v>1245</v>
+      </c>
+      <c r="F2">
+        <v>5689756</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44362</v>
+      </c>
+      <c r="H2">
+        <v>545515</v>
+      </c>
+      <c r="I2">
+        <v>64665465</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
